--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6772" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -338,10 +362,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -385,28 +409,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="3">
+      <c r="C9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="3">
+      <c r="G9" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="3">
+      <c r="H9" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -431,28 +455,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="3">
+      <c r="I11" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -540,10 +564,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -587,28 +611,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="3">
+      <c r="A16" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B16" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="3">
+      <c r="C16" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="E16" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="3">
+      <c r="F16" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="3">
+      <c r="G16" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="3">
+      <c r="H16" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -633,28 +657,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="3">
+      <c r="B18" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="3">
+      <c r="C18" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="3">
+      <c r="D18" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="3">
+      <c r="F18" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="3">
+      <c r="G18" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="3">
+      <c r="H18" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="3">
+      <c r="I18" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -742,10 +766,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="J21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -789,28 +813,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="3">
+      <c r="A23" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="3">
+      <c r="B23" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="3">
+      <c r="C23" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="E23" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="3">
+      <c r="F23" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="3">
+      <c r="G23" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="3">
+      <c r="H23" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -835,28 +859,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="3">
+      <c r="B25" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="3">
+      <c r="C25" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="3">
+      <c r="D25" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="3">
+      <c r="F25" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="3">
+      <c r="G25" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="3">
+      <c r="H25" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="3">
+      <c r="I25" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -973,10 +997,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1020,28 +1044,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="3">
+      <c r="A31" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="3">
+      <c r="C31" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1066,28 +1090,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="3">
+      <c r="I33" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1175,10 +1199,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1222,28 +1246,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="3">
+      <c r="A38" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="3">
+      <c r="C38" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1268,28 +1292,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="3">
+      <c r="I40" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1464,10 +1488,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="3" t="s">
+      <c r="J46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1511,28 +1535,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="3">
+      <c r="A48" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="3">
+      <c r="B48" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="3">
+      <c r="C48" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="3">
+      <c r="F48" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="G48" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="3">
+      <c r="H48" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1557,28 +1581,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="3">
+      <c r="C50" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="3">
+      <c r="D50" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="3">
+      <c r="I50" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1695,10 +1719,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="3" t="s">
+      <c r="J54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1742,28 +1766,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="3">
+      <c r="A56" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="3">
+      <c r="C56" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1788,28 +1812,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="3">
+      <c r="C58" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="3">
+      <c r="D58" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="3">
+      <c r="I58" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1868,10 +1892,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="3" t="s">
+      <c r="J60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1915,28 +1939,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="3">
+      <c r="A62" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="3">
+      <c r="B62" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="3">
+      <c r="C62" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="3">
+      <c r="F62" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="3">
+      <c r="G62" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="3">
+      <c r="H62" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1961,28 +1985,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="3">
+      <c r="B64" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="3">
+      <c r="C64" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="3">
+      <c r="D64" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="3">
+      <c r="F64" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="3">
+      <c r="G64" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="3">
+      <c r="I64" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2070,10 +2094,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="3" t="s">
+      <c r="J67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2117,28 +2141,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="3">
+      <c r="A69" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="3">
+      <c r="B69" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="3">
+      <c r="C69" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="3">
+      <c r="F69" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="3">
+      <c r="G69" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="3">
+      <c r="H69" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2163,28 +2187,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="3">
+      <c r="B71" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="3">
+      <c r="C71" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="3">
+      <c r="D71" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="3">
+      <c r="E71" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="3">
+      <c r="F71" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="3">
+      <c r="G71" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="3">
+      <c r="H71" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="3">
+      <c r="I71" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2243,10 +2267,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="3" t="s">
+      <c r="J73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2290,28 +2314,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="3">
+      <c r="A75" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="3">
+      <c r="C75" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2336,28 +2360,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="3">
+      <c r="B77" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="3">
+      <c r="C77" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="3">
+      <c r="D77" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="3">
+      <c r="F77" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="3">
+      <c r="G77" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="3">
+      <c r="H77" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="3">
+      <c r="I77" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2445,10 +2469,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="3" t="s">
+      <c r="J80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2492,28 +2516,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="3">
+      <c r="A82" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="3">
+      <c r="C82" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2538,28 +2562,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="3">
+      <c r="B84" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="3">
+      <c r="C84" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="3">
+      <c r="D84" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="3">
+      <c r="F84" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="3">
+      <c r="G84" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="3">
+      <c r="H84" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="3">
+      <c r="I84" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2676,10 +2700,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="3" t="s">
+      <c r="J88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2723,28 +2747,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="3">
+      <c r="A90" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="3">
+      <c r="C90" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2769,28 +2793,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="3">
+      <c r="C92" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="3">
+      <c r="D92" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="3">
+      <c r="I92" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2849,10 +2873,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="3" t="s">
+      <c r="J94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2896,28 +2920,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="3">
+      <c r="A96" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="3">
+      <c r="C96" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2942,28 +2966,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="3">
+      <c r="B98" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="3">
+      <c r="C98" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="3">
+      <c r="D98" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="3">
+      <c r="E98" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="3">
+      <c r="F98" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="3">
+      <c r="G98" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="3">
+      <c r="H98" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="3">
+      <c r="I98" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3051,10 +3075,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="3" t="s">
+      <c r="J101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3098,28 +3122,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="3">
+      <c r="A103" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="3">
+      <c r="C103" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3144,28 +3168,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="3">
+      <c r="C105" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="3">
+      <c r="D105" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="3">
+      <c r="I105" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3253,10 +3277,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="3" t="s">
+      <c r="J108" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3300,28 +3324,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="3">
+      <c r="A110" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="3">
+      <c r="B110" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="3">
+      <c r="C110" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="3">
+      <c r="E110" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="3">
+      <c r="F110" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="3">
+      <c r="G110" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="3">
+      <c r="H110" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3346,28 +3370,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="3">
+      <c r="B112" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="3">
+      <c r="C112" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="3">
+      <c r="D112" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="3">
+      <c r="F112" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="3">
+      <c r="G112" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="3">
+      <c r="H112" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="3">
+      <c r="I112" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3513,10 +3537,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="3" t="s">
+      <c r="J117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3560,28 +3584,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="3">
+      <c r="A119" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="3">
+      <c r="B119" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="3">
+      <c r="C119" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="3">
+      <c r="F119" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="3">
+      <c r="G119" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="3">
+      <c r="H119" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3606,28 +3630,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="3">
+      <c r="B121" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="3">
+      <c r="C121" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="3">
+      <c r="D121" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="3">
+      <c r="F121" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="3">
+      <c r="G121" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="3">
+      <c r="H121" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="3">
+      <c r="I121" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3686,10 +3710,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="3" t="s">
+      <c r="J123" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3733,28 +3757,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="3">
+      <c r="A125" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="3">
+      <c r="B125" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="3">
+      <c r="C125" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="3">
+      <c r="E125" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="3">
+      <c r="F125" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="3">
+      <c r="G125" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="3">
+      <c r="H125" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3779,28 +3803,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="3">
+      <c r="B127" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="3">
+      <c r="C127" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="3">
+      <c r="D127" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="3">
+      <c r="F127" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="3">
+      <c r="G127" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="3">
+      <c r="H127" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="3">
+      <c r="I127" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3917,10 +3941,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="3" t="s">
+      <c r="J131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3964,28 +3988,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="3">
+      <c r="A133" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="3">
+      <c r="C133" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4010,28 +4034,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="3">
+      <c r="I135" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4148,10 +4172,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="3" t="s">
+      <c r="J139" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4195,28 +4219,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="3">
+      <c r="A141" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="3">
+      <c r="C141" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4241,28 +4265,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="3">
+      <c r="C143" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="3">
+      <c r="D143" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="3">
+      <c r="I143" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4321,10 +4345,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="3" t="s">
+      <c r="J145" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4368,28 +4392,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="3">
+      <c r="A147" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="3">
+      <c r="C147" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4414,28 +4438,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="3">
+      <c r="B149" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="3">
+      <c r="C149" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="3">
+      <c r="D149" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="3">
+      <c r="E149" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="3">
+      <c r="F149" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="3">
+      <c r="G149" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="3">
+      <c r="H149" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="3">
+      <c r="I149" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4610,10 +4634,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="3" t="s">
+      <c r="J155" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4657,28 +4681,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="3">
+      <c r="A157" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="3">
+      <c r="B157" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="3">
+      <c r="C157" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="3">
+      <c r="F157" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="3">
+      <c r="G157" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="3">
+      <c r="H157" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4703,28 +4727,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="3">
+      <c r="C159" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="3">
+      <c r="D159" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="3">
+      <c r="I159" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4783,10 +4807,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="3" t="s">
+      <c r="J161" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4830,28 +4854,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="3">
+      <c r="A163" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="3">
+      <c r="B163" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="3">
+      <c r="C163" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="3">
+      <c r="E163" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="3">
+      <c r="F163" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="3">
+      <c r="G163" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="3">
+      <c r="H163" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4876,28 +4900,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="3">
+      <c r="B165" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="3">
+      <c r="C165" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="3">
+      <c r="D165" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="3">
+      <c r="E165" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="3">
+      <c r="F165" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="3">
+      <c r="G165" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="3">
+      <c r="H165" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="3">
+      <c r="I165" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4985,10 +5009,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="3" t="s">
+      <c r="J168" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5032,28 +5056,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="3">
+      <c r="A170" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="3">
+      <c r="B170" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="3">
+      <c r="C170" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="3">
+      <c r="E170" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="3">
+      <c r="F170" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="3">
+      <c r="G170" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="3">
+      <c r="H170" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5078,28 +5102,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="3">
+      <c r="B172" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="3">
+      <c r="C172" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="3">
+      <c r="D172" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="3">
+      <c r="E172" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="3">
+      <c r="F172" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="3">
+      <c r="G172" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="3">
+      <c r="H172" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="3">
+      <c r="I172" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5187,10 +5211,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="3" t="s">
+      <c r="J175" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5234,28 +5258,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="3">
+      <c r="A177" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="3">
+      <c r="B177" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="3">
+      <c r="C177" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="3">
+      <c r="E177" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="3">
+      <c r="F177" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="3">
+      <c r="G177" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="3">
+      <c r="H177" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5280,28 +5304,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="3">
+      <c r="C179" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="3">
+      <c r="D179" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="3">
+      <c r="I179" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5447,10 +5471,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="3" t="s">
+      <c r="J184" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5494,28 +5518,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="3">
+      <c r="A186" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="3">
+      <c r="B186" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="3">
+      <c r="C186" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="3">
+      <c r="E186" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="3">
+      <c r="F186" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="3">
+      <c r="G186" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="3">
+      <c r="H186" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5540,28 +5564,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="3">
+      <c r="B188" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="3">
+      <c r="C188" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="3">
+      <c r="D188" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="3">
+      <c r="E188" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="3">
+      <c r="F188" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="3">
+      <c r="G188" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="3">
+      <c r="H188" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="3">
+      <c r="I188" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5620,10 +5644,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="3" t="s">
+      <c r="J190" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5667,28 +5691,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="3">
+      <c r="A192" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="3">
+      <c r="B192" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="3">
+      <c r="C192" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="3">
+      <c r="E192" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="3">
+      <c r="F192" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="3">
+      <c r="G192" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="3">
+      <c r="H192" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5713,28 +5737,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="3">
+      <c r="C194" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="3">
+      <c r="D194" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="3">
+      <c r="I194" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5793,10 +5817,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="3" t="s">
+      <c r="J196" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5840,28 +5864,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="3">
+      <c r="A198" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="3">
+      <c r="B198" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="3">
+      <c r="C198" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="3">
+      <c r="E198" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="3">
+      <c r="F198" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="3">
+      <c r="G198" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="3">
+      <c r="H198" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5886,28 +5910,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="3">
+      <c r="C200" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="3">
+      <c r="D200" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="3">
+      <c r="I200" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5995,10 +6019,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="3" t="s">
+      <c r="J203" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6042,28 +6066,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="3">
+      <c r="A205" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="3">
+      <c r="B205" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="3">
+      <c r="C205" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="3">
+      <c r="E205" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="3">
+      <c r="F205" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="3">
+      <c r="G205" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="3">
+      <c r="H205" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6088,28 +6112,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="3">
+      <c r="C207" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="3">
+      <c r="D207" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="3">
+      <c r="I207" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6168,10 +6192,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="3" t="s">
+      <c r="J209" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6215,28 +6239,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="3">
+      <c r="A211" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="3">
+      <c r="B211" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="3">
+      <c r="C211" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="3">
+      <c r="E211" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="3">
+      <c r="F211" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="3">
+      <c r="G211" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="3">
+      <c r="H211" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6261,28 +6285,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="3">
+      <c r="B213" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="3">
+      <c r="C213" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="3">
+      <c r="D213" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="3">
+      <c r="E213" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="3">
+      <c r="F213" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="3">
+      <c r="G213" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="3">
+      <c r="H213" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="3">
+      <c r="I213" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6457,10 +6481,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="3" t="s">
+      <c r="J219" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6504,28 +6528,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="3">
+      <c r="A221" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="3">
+      <c r="B221" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="3">
+      <c r="C221" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="3">
+      <c r="E221" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="3">
+      <c r="F221" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="3">
+      <c r="G221" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="3">
+      <c r="H221" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6550,28 +6574,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="3">
+      <c r="C223" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="3">
+      <c r="D223" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="3">
+      <c r="I223" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6630,10 +6654,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="3" t="s">
+      <c r="J225" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6677,28 +6701,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="3">
+      <c r="A227" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="3">
+      <c r="B227" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="3">
+      <c r="C227" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="3">
+      <c r="E227" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="3">
+      <c r="F227" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="3">
+      <c r="G227" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="3">
+      <c r="H227" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6723,28 +6747,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="3">
+      <c r="B229" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="3">
+      <c r="C229" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="3">
+      <c r="D229" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="3">
+      <c r="E229" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="3">
+      <c r="F229" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="3">
+      <c r="G229" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="3">
+      <c r="H229" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="3">
+      <c r="I229" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6832,10 +6856,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="3" t="s">
+      <c r="J232" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6879,28 +6903,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="3">
+      <c r="A234" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="3">
+      <c r="B234" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="3">
+      <c r="C234" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="3">
+      <c r="E234" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="3">
+      <c r="F234" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="3">
+      <c r="G234" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="3">
+      <c r="H234" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6925,28 +6949,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="3">
+      <c r="B236" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="3">
+      <c r="C236" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="3">
+      <c r="D236" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="3">
+      <c r="E236" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="3">
+      <c r="F236" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="3">
+      <c r="G236" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="3">
+      <c r="H236" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="3">
+      <c r="I236" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7034,10 +7058,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="3" t="s">
+      <c r="J239" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7081,28 +7105,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="3">
+      <c r="A241" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="3">
+      <c r="B241" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="3">
+      <c r="C241" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="3">
+      <c r="E241" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="3">
+      <c r="F241" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="3">
+      <c r="G241" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="3">
+      <c r="H241" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7127,28 +7151,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="3">
+      <c r="B243" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="3">
+      <c r="C243" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="3">
+      <c r="D243" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="3">
+      <c r="E243" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="3">
+      <c r="F243" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="3">
+      <c r="G243" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="3">
+      <c r="H243" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="3">
+      <c r="I243" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7207,10 +7231,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="3" t="s">
+      <c r="J245" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7254,28 +7278,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="3">
+      <c r="A247" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="3">
+      <c r="B247" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="3">
+      <c r="C247" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="3">
+      <c r="E247" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="3">
+      <c r="F247" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="3">
+      <c r="G247" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="3">
+      <c r="H247" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7300,28 +7324,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="3">
+      <c r="B249" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="3">
+      <c r="C249" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="3">
+      <c r="D249" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="3">
+      <c r="E249" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="3">
+      <c r="F249" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="3">
+      <c r="G249" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="3">
+      <c r="H249" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="3">
+      <c r="I249" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7380,10 +7404,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="3" t="s">
+      <c r="J251" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7427,28 +7451,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="3">
+      <c r="A253" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="3">
+      <c r="B253" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="3">
+      <c r="C253" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="3">
+      <c r="E253" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="3">
+      <c r="F253" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="3">
+      <c r="G253" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="3">
+      <c r="H253" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7473,28 +7497,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="3">
+      <c r="B255" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="3">
+      <c r="C255" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="3">
+      <c r="D255" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="3">
+      <c r="E255" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="3">
+      <c r="F255" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="3">
+      <c r="G255" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="3">
+      <c r="H255" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="3">
+      <c r="I255" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7611,10 +7635,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="3" t="s">
+      <c r="J259" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7658,28 +7682,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="3">
+      <c r="A261" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="3">
+      <c r="B261" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="3">
+      <c r="C261" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="3">
+      <c r="E261" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="3">
+      <c r="F261" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="3">
+      <c r="G261" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="3">
+      <c r="H261" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7704,28 +7728,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="3">
+      <c r="B263" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="3">
+      <c r="C263" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="3">
+      <c r="D263" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="3">
+      <c r="E263" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="3">
+      <c r="F263" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="3">
+      <c r="G263" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="3">
+      <c r="H263" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="3">
+      <c r="I263" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7784,10 +7808,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="3" t="s">
+      <c r="J265" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7831,28 +7855,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="3">
+      <c r="A267" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="3">
+      <c r="B267" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="3">
+      <c r="C267" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="3">
+      <c r="E267" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="3">
+      <c r="F267" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="3">
+      <c r="G267" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="3">
+      <c r="H267" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7877,28 +7901,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="3">
+      <c r="B269" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="3">
+      <c r="C269" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="3">
+      <c r="D269" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="3">
+      <c r="E269" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="3">
+      <c r="F269" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="3">
+      <c r="G269" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="3">
+      <c r="H269" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="3">
+      <c r="I269" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7986,10 +8010,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="3" t="s">
+      <c r="J272" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8033,28 +8057,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="3">
+      <c r="A274" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="3">
+      <c r="B274" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="3">
+      <c r="C274" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="3">
+      <c r="E274" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="3">
+      <c r="F274" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="3">
+      <c r="G274" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="3">
+      <c r="H274" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8079,28 +8103,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="3">
+      <c r="B276" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="3">
+      <c r="C276" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="3">
+      <c r="D276" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="3">
+      <c r="E276" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="3">
+      <c r="F276" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="3">
+      <c r="G276" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="3">
+      <c r="H276" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="3">
+      <c r="I276" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8246,10 +8270,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="3" t="s">
+      <c r="J281" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8293,28 +8317,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="3">
+      <c r="A283" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="3">
+      <c r="B283" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="3">
+      <c r="C283" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="3">
+      <c r="E283" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="3">
+      <c r="F283" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="3">
+      <c r="G283" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="3">
+      <c r="H283" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8339,28 +8363,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="3">
+      <c r="B285" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="3">
+      <c r="C285" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="3">
+      <c r="D285" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="3">
+      <c r="E285" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="3">
+      <c r="F285" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="3">
+      <c r="G285" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="3">
+      <c r="H285" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="3">
+      <c r="I285" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8564,10 +8588,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="3" t="s">
+      <c r="J292" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8611,28 +8635,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="3">
+      <c r="A294" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="3">
+      <c r="B294" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="3">
+      <c r="C294" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="3">
+      <c r="E294" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="3">
+      <c r="F294" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="3">
+      <c r="G294" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="3">
+      <c r="H294" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8657,28 +8681,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="3">
+      <c r="B296" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="3">
+      <c r="C296" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="3">
+      <c r="D296" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="3">
+      <c r="E296" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="3">
+      <c r="F296" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="3">
+      <c r="G296" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="3">
+      <c r="H296" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="3">
+      <c r="I296" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8940,10 +8964,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="3" t="s">
+      <c r="J305" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8987,28 +9011,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="3">
+      <c r="A307" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="3">
+      <c r="B307" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="3">
+      <c r="C307" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="3">
+      <c r="E307" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="3">
+      <c r="F307" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="3">
+      <c r="G307" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="3">
+      <c r="H307" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9033,28 +9057,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="3">
+      <c r="B309" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="3">
+      <c r="C309" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="3">
+      <c r="D309" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="3">
+      <c r="E309" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="3">
+      <c r="F309" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="3">
+      <c r="G309" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="3">
+      <c r="H309" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="3">
+      <c r="I309" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9113,10 +9137,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="3" t="s">
+      <c r="J311" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
